--- a/biology/Zoologie/Diphyllobothrium/Diphyllobothrium.xlsx
+++ b/biology/Zoologie/Diphyllobothrium/Diphyllobothrium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diphyllobothrium est un genre de vers plats parasites, de la classe des cestodes (famille des Diphyllobothriidae). Certaines espèces de ce genre peuvent causer la diphyllobothriose (ou dibothriocéphalose) chez l'homme, affection intestinale résultant de la consommation de poisson cru ou insuffisamment cuit. Les espèces principalement responsables de ces maladies se trouvent cependant désormais placées dans le genre Dibothriocephalus, notamment Dibothriocephalus latus longtemps appelé Diphyllobothrium latum.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,15 +551,51 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet avec auteur de ce taxon est Diphyllobothrium Cobbold, 1858[1].
-Diphyllobothrium a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet avec auteur de ce taxon est Diphyllobothrium Cobbold, 1858.
+Diphyllobothrium a pour synonymes :
 Cordicephalus Wardle, McLeod &amp; Stewart, 1947 ;
 Diplogonoporus Lönnberg, 1892 ;
-Lueheella Baer, 1924.
-Liste des espèces
-Selon la base de données World Register of Marine Species                               (20 février 2024)[1], le genre Diphyllobothrium contient les espèces valides suivantes :
+Lueheella Baer, 1924.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Diphyllobothrium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diphyllobothrium</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la base de données World Register of Marine Species                               (20 février 2024), le genre Diphyllobothrium contient les espèces valides suivantes :
 Diphyllobothrium arctocephalinum Johnston, 1937
 Diphyllobothrium balaenopterae (Lönnberg, 1892) Waeschenbach, Brabec, Scholz, Littlewood &amp; Kuchta, 2017
 Diphyllobothrium cameroni Rausch, 1969
@@ -575,8 +625,43 @@
 Diphyllobothrium sprakeri Hernández-Orts, Kuzmina, Gomez-Puerta &amp; Kuchta, 2021
 Diphyllobothrium stemmacephalum Cobbold, 1858
 Diphyllobothrium tetrapterum (von Siebold, 1848)
-Synonymes d'espèces, Reclassifications
-D'après World Register of Marine Species                               (20 février 2024)[1], les espèces suivantes sont des synonymes ou des reclassifications au sein de la famille des Diphyllobothriidae :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Diphyllobothrium</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diphyllobothrium</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes d'espèces, Reclassifications</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D'après World Register of Marine Species                               (20 février 2024), les espèces suivantes sont des synonymes ou des reclassifications au sein de la famille des Diphyllobothriidae :
 l'espèce Diphyllobothrium alascense Rausch &amp; Williamson, 1958 est Dibothriocephalus alaskensis (Rausch &amp; Williamson, 1958) Waeschenbach, Brabec, Scholz, Littlewood &amp; Kuchta, 2017 ;
 l'espèce Diphyllobothrium antarcticum (Baird, 1853) est Glandicephalus antarcticus (Baird, 1853) Fuhrmann, 1921 ;
 l'espèce Diphyllobothrium archeri (Leiper &amp; Atkinson, 1914) Meggitt, 1924 est Diphyllobothrium lashleyi (Leiper &amp; Atkinson, 1914) Meggitt, 1924 ;
